--- a/regression/Plots_PM5_2022-06-10/Regression_parameters.xlsx
+++ b/regression/Plots_PM5_2022-06-10/Regression_parameters.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH246"/>
+  <dimension ref="A1:BH220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>6.435266065585592</v>
+        <v>4.807429449549568</v>
       </c>
       <c r="AS3" t="n">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="BH3" t="n">
-        <v>14.40962682290786</v>
+        <v>7.234896317201215</v>
       </c>
     </row>
     <row r="4">
@@ -1403,10 +1403,10 @@
         </is>
       </c>
       <c r="AR4" t="n">
-        <v>-2.561870401686572</v>
+        <v>1.161181188129189</v>
       </c>
       <c r="AS4" t="n">
-        <v>12.85907499729165</v>
+        <v>5.256461585688645</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="BH4" t="n">
-        <v>13.50801701588591</v>
+        <v>6.864340483757315</v>
       </c>
     </row>
     <row r="5">
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>3.40353857361604</v>
+        <v>3.399261045193755</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.43103402165344</v>
+        <v>0.1111950562126841</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>3.552112379200183</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
@@ -1616,16 +1616,16 @@
       </c>
       <c r="BE5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH5" t="n">
-        <v>13.17195367164365</v>
+        <v>6.830175917244952</v>
       </c>
     </row>
     <row r="6">
@@ -1753,16 +1753,16 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>4.195513481310888</v>
+        <v>6.032172481096616</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.4607558114507331</v>
+        <v>-2.37774185412392</v>
       </c>
       <c r="AT6" t="n">
-        <v>-15.62707714963971</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>28.82366402110369</v>
+        <v>1</v>
       </c>
       <c r="AV6" t="n">
         <v>1</v>
@@ -1791,16 +1791,16 @@
       </c>
       <c r="BE6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="BH6" t="n">
-        <v>11.89998996384148</v>
+        <v>6.752393815027522</v>
       </c>
     </row>
     <row r="7">
@@ -1928,16 +1928,16 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>4.504627119993039</v>
+        <v>4.485568468191921</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0002477316561670638</v>
+        <v>2.27722907915058</v>
       </c>
       <c r="AT7" t="n">
-        <v>11.14849308887269</v>
+        <v>-6.734262599175054</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>6.211412633803759</v>
       </c>
       <c r="AV7" t="n">
         <v>1</v>
@@ -1966,16 +1966,16 @@
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BH7" t="n">
-        <v>7.40595141186778</v>
+        <v>6.369477079853232</v>
       </c>
     </row>
     <row r="8">
@@ -2103,22 +2103,22 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>1.916481853306241</v>
+        <v>4.224077995983569</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.474904107630651</v>
+        <v>6.197343329682855</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.004057018950779592</v>
+        <v>-9.792966364097392</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.007511749645645448</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>31.64424542060466</v>
+        <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>-29.57211903486762</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="BH8" t="n">
-        <v>5.479587902144613</v>
+        <v>5.463407161727589</v>
       </c>
     </row>
     <row r="9">
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>6.435266065585592</v>
+        <v>4.807429449549568</v>
       </c>
       <c r="AS9" t="n">
         <v>1</v>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="BH9" t="n">
-        <v>14.40962682290786</v>
+        <v>7.234896317201215</v>
       </c>
     </row>
     <row r="10">
@@ -2453,10 +2453,10 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>-0.02197017082124253</v>
+        <v>-13.6706714881236</v>
       </c>
       <c r="AS10" t="n">
-        <v>11.01387377237693</v>
+        <v>31.46026387877214</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="BH10" t="n">
-        <v>14.36419801631423</v>
+        <v>6.308732134613792</v>
       </c>
     </row>
     <row r="11">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="AR11" t="n">
-        <v>3.40353857361604</v>
+        <v>6.032172481096616</v>
       </c>
       <c r="AS11" t="n">
-        <v>5.43103402165344</v>
+        <v>-2.37774185412392</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2675,7 +2675,7 @@
         </is>
       </c>
       <c r="BH11" t="n">
-        <v>13.17195367164365</v>
+        <v>6.752393815027522</v>
       </c>
     </row>
     <row r="12">
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>-45.24302208018309</v>
+        <v>-8.385051150289247</v>
       </c>
       <c r="AS12" t="n">
-        <v>80.8456238136428</v>
+        <v>23.9972269098078</v>
       </c>
       <c r="AT12" t="n">
-        <v>91.15458773238981</v>
+        <v>-7.30053108158126</v>
       </c>
       <c r="AU12" t="n">
-        <v>-143.3484146236051</v>
+        <v>9.509944946145598</v>
       </c>
       <c r="AV12" t="n">
         <v>1</v>
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="BH12" t="n">
-        <v>12.2460549910026</v>
+        <v>6.090188857774658</v>
       </c>
     </row>
     <row r="13">
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>4.504627119993039</v>
+        <v>4.224077995983569</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0002477316561670638</v>
+        <v>6.197343329682855</v>
       </c>
       <c r="AT13" t="n">
-        <v>11.14849308887269</v>
+        <v>-9.792966364097392</v>
       </c>
       <c r="AU13" t="n">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         </is>
       </c>
       <c r="BH13" t="n">
-        <v>7.40595141186778</v>
+        <v>5.463407161727589</v>
       </c>
     </row>
     <row r="14">
@@ -27863,3126 +27863,6 @@
         <v>1.6597</v>
       </c>
       <c r="AJ220" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>16</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-34.4</v>
-      </c>
-      <c r="H221" t="n">
-        <v>35</v>
-      </c>
-      <c r="I221" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J221" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K221" t="n">
-        <v>21.3901</v>
-      </c>
-      <c r="L221" t="n">
-        <v>12.6124</v>
-      </c>
-      <c r="M221" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N221" t="n">
-        <v>23.0713</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.021054</v>
-      </c>
-      <c r="P221" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q221" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R221" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S221" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T221" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U221" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V221" t="n">
-        <v>35</v>
-      </c>
-      <c r="W221" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X221" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y221" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z221" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA221" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB221" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC221" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD221" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF221" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG221" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH221" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI221" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ221" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>16</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-34.4</v>
-      </c>
-      <c r="H222" t="n">
-        <v>40</v>
-      </c>
-      <c r="I222" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J222" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K222" t="n">
-        <v>18.8413</v>
-      </c>
-      <c r="L222" t="n">
-        <v>12.6124</v>
-      </c>
-      <c r="M222" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N222" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.03334</v>
-      </c>
-      <c r="P222" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q222" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R222" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S222" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T222" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U222" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V222" t="n">
-        <v>35</v>
-      </c>
-      <c r="W222" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X222" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z222" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA222" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB222" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC222" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD222" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE222" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF222" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG222" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH222" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ222" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>16</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-33.9</v>
-      </c>
-      <c r="H223" t="n">
-        <v>35</v>
-      </c>
-      <c r="I223" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J223" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K223" t="n">
-        <v>21.0937</v>
-      </c>
-      <c r="L223" t="n">
-        <v>12.432</v>
-      </c>
-      <c r="M223" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N223" t="n">
-        <v>21.5058</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.022483</v>
-      </c>
-      <c r="P223" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q223" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R223" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S223" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T223" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U223" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V223" t="n">
-        <v>35</v>
-      </c>
-      <c r="W223" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X223" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z223" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA223" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB223" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC223" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD223" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE223" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ223" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>16</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-33.9</v>
-      </c>
-      <c r="H224" t="n">
-        <v>40</v>
-      </c>
-      <c r="I224" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J224" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K224" t="n">
-        <v>18.582</v>
-      </c>
-      <c r="L224" t="n">
-        <v>12.432</v>
-      </c>
-      <c r="M224" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N224" t="n">
-        <v>13.581</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.03459</v>
-      </c>
-      <c r="P224" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q224" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R224" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S224" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T224" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U224" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V224" t="n">
-        <v>35</v>
-      </c>
-      <c r="W224" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X224" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y224" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z224" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA224" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB224" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC224" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD224" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE224" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF224" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG224" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH224" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI224" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ224" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>16</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-33.4</v>
-      </c>
-      <c r="H225" t="n">
-        <v>35</v>
-      </c>
-      <c r="I225" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J225" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K225" t="n">
-        <v>20.7973</v>
-      </c>
-      <c r="L225" t="n">
-        <v>12.2515</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N225" t="n">
-        <v>20.1393</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.023911</v>
-      </c>
-      <c r="P225" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R225" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S225" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T225" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U225" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V225" t="n">
-        <v>35</v>
-      </c>
-      <c r="W225" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X225" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y225" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z225" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA225" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB225" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC225" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD225" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE225" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF225" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG225" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH225" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI225" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ225" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>16</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-33.4</v>
-      </c>
-      <c r="H226" t="n">
-        <v>40</v>
-      </c>
-      <c r="I226" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J226" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K226" t="n">
-        <v>18.3227</v>
-      </c>
-      <c r="L226" t="n">
-        <v>12.2515</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N226" t="n">
-        <v>13.0902</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.03584</v>
-      </c>
-      <c r="P226" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R226" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S226" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T226" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U226" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V226" t="n">
-        <v>35</v>
-      </c>
-      <c r="W226" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X226" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y226" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z226" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA226" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB226" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC226" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD226" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE226" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF226" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG226" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH226" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI226" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ226" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>16</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-32.9</v>
-      </c>
-      <c r="H227" t="n">
-        <v>35</v>
-      </c>
-      <c r="I227" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J227" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K227" t="n">
-        <v>20.501</v>
-      </c>
-      <c r="L227" t="n">
-        <v>12.0711</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N227" t="n">
-        <v>18.9361</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.02534</v>
-      </c>
-      <c r="P227" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R227" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S227" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T227" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U227" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V227" t="n">
-        <v>35</v>
-      </c>
-      <c r="W227" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X227" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y227" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z227" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA227" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB227" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC227" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD227" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE227" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF227" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG227" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH227" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI227" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ227" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>16</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-32.9</v>
-      </c>
-      <c r="H228" t="n">
-        <v>40</v>
-      </c>
-      <c r="I228" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J228" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K228" t="n">
-        <v>18.0633</v>
-      </c>
-      <c r="L228" t="n">
-        <v>12.0711</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N228" t="n">
-        <v>12.6336</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.03709</v>
-      </c>
-      <c r="P228" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R228" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S228" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T228" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U228" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V228" t="n">
-        <v>35</v>
-      </c>
-      <c r="W228" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X228" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y228" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z228" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA228" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB228" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC228" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD228" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE228" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF228" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG228" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH228" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI228" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ228" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>16</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-32.4</v>
-      </c>
-      <c r="H229" t="n">
-        <v>35</v>
-      </c>
-      <c r="I229" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J229" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K229" t="n">
-        <v>20.2046</v>
-      </c>
-      <c r="L229" t="n">
-        <v>11.8907</v>
-      </c>
-      <c r="M229" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N229" t="n">
-        <v>17.8686</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.026769</v>
-      </c>
-      <c r="P229" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q229" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R229" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S229" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T229" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U229" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V229" t="n">
-        <v>35</v>
-      </c>
-      <c r="W229" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X229" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y229" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z229" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA229" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB229" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC229" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD229" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE229" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF229" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG229" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH229" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI229" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ229" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>16</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-32.4</v>
-      </c>
-      <c r="H230" t="n">
-        <v>40</v>
-      </c>
-      <c r="I230" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J230" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K230" t="n">
-        <v>17.804</v>
-      </c>
-      <c r="L230" t="n">
-        <v>11.8907</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N230" t="n">
-        <v>12.2079</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.03834</v>
-      </c>
-      <c r="P230" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R230" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S230" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T230" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U230" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V230" t="n">
-        <v>35</v>
-      </c>
-      <c r="W230" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X230" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z230" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA230" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB230" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC230" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD230" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE230" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF230" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG230" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH230" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI230" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ230" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>16</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-31.9</v>
-      </c>
-      <c r="H231" t="n">
-        <v>35</v>
-      </c>
-      <c r="I231" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J231" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K231" t="n">
-        <v>19.9082</v>
-      </c>
-      <c r="L231" t="n">
-        <v>11.7103</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N231" t="n">
-        <v>16.915</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.028197</v>
-      </c>
-      <c r="P231" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R231" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S231" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T231" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U231" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V231" t="n">
-        <v>35</v>
-      </c>
-      <c r="W231" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X231" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB231" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC231" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD231" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE231" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF231" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG231" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH231" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI231" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ231" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>16</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-31.9</v>
-      </c>
-      <c r="H232" t="n">
-        <v>40</v>
-      </c>
-      <c r="I232" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J232" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K232" t="n">
-        <v>17.5447</v>
-      </c>
-      <c r="L232" t="n">
-        <v>11.7103</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N232" t="n">
-        <v>11.8099</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.03959</v>
-      </c>
-      <c r="P232" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R232" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S232" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T232" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U232" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V232" t="n">
-        <v>35</v>
-      </c>
-      <c r="W232" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X232" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y232" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z232" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA232" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB232" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD232" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE232" t="n">
-        <v>292.34</v>
-      </c>
-      <c r="AF232" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG232" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH232" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI232" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ232" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>17</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-37.4</v>
-      </c>
-      <c r="H233" t="n">
-        <v>40</v>
-      </c>
-      <c r="I233" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J233" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K233" t="n">
-        <v>20.3972</v>
-      </c>
-      <c r="L233" t="n">
-        <v>13.6948</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N233" t="n">
-        <v>18.4136</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.02584</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R233" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S233" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T233" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U233" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V233" t="n">
-        <v>35</v>
-      </c>
-      <c r="W233" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X233" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA233" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB233" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC233" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD233" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF233" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG233" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH233" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI233" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ233" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="n">
-        <v>17</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-36.9</v>
-      </c>
-      <c r="H234" t="n">
-        <v>40</v>
-      </c>
-      <c r="I234" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J234" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K234" t="n">
-        <v>20.1379</v>
-      </c>
-      <c r="L234" t="n">
-        <v>13.5144</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N234" t="n">
-        <v>17.5228</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.02709</v>
-      </c>
-      <c r="P234" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R234" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S234" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T234" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U234" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V234" t="n">
-        <v>35</v>
-      </c>
-      <c r="W234" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X234" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y234" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z234" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA234" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB234" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC234" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD234" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE234" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF234" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG234" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH234" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI234" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ234" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>0</v>
-      </c>
-      <c r="F235" t="n">
-        <v>17</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-36.4</v>
-      </c>
-      <c r="H235" t="n">
-        <v>40</v>
-      </c>
-      <c r="I235" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J235" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K235" t="n">
-        <v>19.8786</v>
-      </c>
-      <c r="L235" t="n">
-        <v>13.334</v>
-      </c>
-      <c r="M235" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N235" t="n">
-        <v>16.7143</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.02834</v>
-      </c>
-      <c r="P235" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q235" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R235" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S235" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T235" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U235" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V235" t="n">
-        <v>35</v>
-      </c>
-      <c r="W235" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X235" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y235" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z235" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA235" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB235" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC235" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD235" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE235" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ235" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="n">
-        <v>17</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-35.9</v>
-      </c>
-      <c r="H236" t="n">
-        <v>40</v>
-      </c>
-      <c r="I236" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J236" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K236" t="n">
-        <v>19.6193</v>
-      </c>
-      <c r="L236" t="n">
-        <v>13.1536</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N236" t="n">
-        <v>15.9771</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.02959</v>
-      </c>
-      <c r="P236" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R236" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S236" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T236" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U236" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V236" t="n">
-        <v>35</v>
-      </c>
-      <c r="W236" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X236" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y236" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z236" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA236" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB236" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC236" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD236" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE236" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF236" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH236" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI236" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ236" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>17</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-35.4</v>
-      </c>
-      <c r="H237" t="n">
-        <v>40</v>
-      </c>
-      <c r="I237" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J237" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K237" t="n">
-        <v>19.3599</v>
-      </c>
-      <c r="L237" t="n">
-        <v>12.9732</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N237" t="n">
-        <v>15.3021</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.03084</v>
-      </c>
-      <c r="P237" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R237" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S237" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T237" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U237" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V237" t="n">
-        <v>35</v>
-      </c>
-      <c r="W237" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X237" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y237" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z237" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA237" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB237" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC237" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD237" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE237" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF237" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG237" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH237" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI237" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ237" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="n">
-        <v>17</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-35</v>
-      </c>
-      <c r="H238" t="n">
-        <v>35</v>
-      </c>
-      <c r="I238" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J238" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K238" t="n">
-        <v>21.7457</v>
-      </c>
-      <c r="L238" t="n">
-        <v>12.8289</v>
-      </c>
-      <c r="M238" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N238" t="n">
-        <v>23.4815</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.01934</v>
-      </c>
-      <c r="P238" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q238" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R238" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S238" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T238" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U238" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V238" t="n">
-        <v>35</v>
-      </c>
-      <c r="W238" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X238" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y238" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z238" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA238" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB238" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC238" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD238" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE238" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF238" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG238" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH238" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI238" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ238" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>17</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-34.9</v>
-      </c>
-      <c r="H239" t="n">
-        <v>35</v>
-      </c>
-      <c r="I239" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J239" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K239" t="n">
-        <v>21.6864</v>
-      </c>
-      <c r="L239" t="n">
-        <v>12.7928</v>
-      </c>
-      <c r="M239" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N239" t="n">
-        <v>23.4121</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.019626</v>
-      </c>
-      <c r="P239" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q239" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R239" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S239" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T239" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U239" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V239" t="n">
-        <v>35</v>
-      </c>
-      <c r="W239" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X239" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y239" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z239" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA239" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB239" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC239" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD239" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE239" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF239" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG239" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH239" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI239" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ239" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>0</v>
-      </c>
-      <c r="F240" t="n">
-        <v>17</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-34.9</v>
-      </c>
-      <c r="H240" t="n">
-        <v>40</v>
-      </c>
-      <c r="I240" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J240" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K240" t="n">
-        <v>19.1006</v>
-      </c>
-      <c r="L240" t="n">
-        <v>12.7928</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N240" t="n">
-        <v>14.6819</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.03209</v>
-      </c>
-      <c r="P240" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R240" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S240" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T240" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U240" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V240" t="n">
-        <v>35</v>
-      </c>
-      <c r="W240" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X240" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y240" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z240" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA240" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB240" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC240" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD240" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE240" t="n">
-        <v>322.64</v>
-      </c>
-      <c r="AF240" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG240" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH240" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI240" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ240" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>0</v>
-      </c>
-      <c r="F241" t="n">
-        <v>18</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-40</v>
-      </c>
-      <c r="H241" t="n">
-        <v>40</v>
-      </c>
-      <c r="I241" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J241" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K241" t="n">
-        <v>21.7457</v>
-      </c>
-      <c r="L241" t="n">
-        <v>14.633</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N241" t="n">
-        <v>23.6691</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.01934</v>
-      </c>
-      <c r="P241" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R241" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S241" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T241" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U241" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V241" t="n">
-        <v>35</v>
-      </c>
-      <c r="W241" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X241" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y241" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z241" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA241" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB241" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC241" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD241" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE241" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF241" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG241" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH241" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI241" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ241" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>0</v>
-      </c>
-      <c r="F242" t="n">
-        <v>18</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-39.58</v>
-      </c>
-      <c r="H242" t="n">
-        <v>40</v>
-      </c>
-      <c r="I242" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J242" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K242" t="n">
-        <v>21.5279</v>
-      </c>
-      <c r="L242" t="n">
-        <v>14.4814</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N242" t="n">
-        <v>23.4121</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.02039</v>
-      </c>
-      <c r="P242" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q242" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R242" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S242" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T242" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U242" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V242" t="n">
-        <v>35</v>
-      </c>
-      <c r="W242" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X242" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y242" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z242" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA242" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB242" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC242" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD242" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE242" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF242" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG242" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH242" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI242" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ242" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F243" t="n">
-        <v>18</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-39.16</v>
-      </c>
-      <c r="H243" t="n">
-        <v>40</v>
-      </c>
-      <c r="I243" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J243" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K243" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="L243" t="n">
-        <v>14.3299</v>
-      </c>
-      <c r="M243" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N243" t="n">
-        <v>22.2065</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.02144</v>
-      </c>
-      <c r="P243" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q243" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R243" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S243" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T243" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U243" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V243" t="n">
-        <v>35</v>
-      </c>
-      <c r="W243" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X243" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y243" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z243" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA243" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB243" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD243" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE243" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF243" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG243" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH243" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI243" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ243" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" t="n">
-        <v>18</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-38.74</v>
-      </c>
-      <c r="H244" t="n">
-        <v>40</v>
-      </c>
-      <c r="I244" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J244" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K244" t="n">
-        <v>21.0922</v>
-      </c>
-      <c r="L244" t="n">
-        <v>14.1784</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N244" t="n">
-        <v>21.1189</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.02249</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R244" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S244" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T244" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U244" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V244" t="n">
-        <v>35</v>
-      </c>
-      <c r="W244" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X244" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y244" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z244" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA244" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB244" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD244" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE244" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF244" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG244" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH244" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI244" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ244" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>0</v>
-      </c>
-      <c r="F245" t="n">
-        <v>18</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-38.32</v>
-      </c>
-      <c r="H245" t="n">
-        <v>40</v>
-      </c>
-      <c r="I245" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J245" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K245" t="n">
-        <v>20.8744</v>
-      </c>
-      <c r="L245" t="n">
-        <v>14.0268</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N245" t="n">
-        <v>20.1329</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.02354</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R245" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S245" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T245" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U245" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V245" t="n">
-        <v>35</v>
-      </c>
-      <c r="W245" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X245" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y245" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z245" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA245" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB245" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC245" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD245" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE245" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF245" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG245" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH245" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI245" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ245" t="inlineStr">
-        <is>
-          <t>21a_FC11_OCR1.3_DR35</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>PM5</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>GHS</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Empire_Wind_1</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
-      <c r="F246" t="n">
-        <v>18</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-37.9</v>
-      </c>
-      <c r="H246" t="n">
-        <v>40</v>
-      </c>
-      <c r="I246" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J246" t="n">
-        <v>61.1536</v>
-      </c>
-      <c r="K246" t="n">
-        <v>20.6566</v>
-      </c>
-      <c r="L246" t="n">
-        <v>13.8753</v>
-      </c>
-      <c r="M246" t="n">
-        <v>0.98375</v>
-      </c>
-      <c r="N246" t="n">
-        <v>19.2349</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.02459</v>
-      </c>
-      <c r="P246" t="n">
-        <v>0.45279</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>0.3919</v>
-      </c>
-      <c r="R246" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="S246" t="n">
-        <v>0.020017</v>
-      </c>
-      <c r="T246" t="n">
-        <v>0.0025756</v>
-      </c>
-      <c r="U246" t="n">
-        <v>0.32421</v>
-      </c>
-      <c r="V246" t="n">
-        <v>35</v>
-      </c>
-      <c r="W246" t="n">
-        <v>0.008600200000000001</v>
-      </c>
-      <c r="X246" t="n">
-        <v>0.0041283</v>
-      </c>
-      <c r="Y246" t="n">
-        <v>1.2618e-07</v>
-      </c>
-      <c r="Z246" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA246" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB246" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC246" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD246" t="n">
-        <v>390000</v>
-      </c>
-      <c r="AE246" t="n">
-        <v>352.94</v>
-      </c>
-      <c r="AF246" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG246" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH246" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI246" t="n">
-        <v>1.5431</v>
-      </c>
-      <c r="AJ246" t="inlineStr">
         <is>
           <t>21a_FC11_OCR1.3_DR35</t>
         </is>
